--- a/bank statement generator/bank_statements/statement_23.xlsx
+++ b/bank statement generator/bank_statements/statement_23.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 14.07.2024</t>
+          <t>KONTOSTAND AM 03.12.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,114 +759,146 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>18.07.</t>
+          <t>04.12.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>19.07.</t>
+          <t>05.12.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>MCDONALDS Sondershausen</t>
+          <t>KARTENZ./04.12 LIDL RO</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>12,17-</t>
+          <t>58,42-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>22.07.</t>
+          <t>08.12.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>23.07.</t>
+          <t>09.12.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>ABSCHLAG STROM Stadtwerke Rosenheim 80000741</t>
+          <t>ZALANDO MKTPLC EU DHYANA</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>84,07-</t>
+          <t>165,90-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>24.07.</t>
+          <t>12.12.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>25.07.</t>
+          <t>13.12.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>RECHNUNG VODAFONE GMBH 77890686</t>
+          <t>ABSCHLAG STROM Stadtwerke Rosenheim 26013271</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>38,65-</t>
+          <t>84,68-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>28.07.</t>
+          <t>14.12.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>29.07.</t>
+          <t>15.12.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
+          <t>PAYPAL TBFUNN</t>
+        </is>
+      </c>
+      <c r="E9" s="17" t="inlineStr">
+        <is>
+          <t>68,15-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>16.12.</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>17.12.</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
           <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
         </is>
       </c>
-      <c r="E9" s="17" t="inlineStr">
-        <is>
-          <t>25,56-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="8" t="n"/>
-      <c r="C10" s="8" t="n"/>
-      <c r="D10" s="8" t="n"/>
-      <c r="E10" s="12" t="n"/>
+      <c r="E10" s="17" t="inlineStr">
+        <is>
+          <t>25,03-</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="8" t="n"/>
-      <c r="C11" s="8" t="n"/>
-      <c r="D11" s="8" t="n"/>
-      <c r="E11" s="12" t="n"/>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>20.12.</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>21.12.</t>
+        </is>
+      </c>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>EBAY MKTPLC EU UDNLJK</t>
+        </is>
+      </c>
+      <c r="E11" s="17" t="inlineStr">
+        <is>
+          <t>101,29-</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="27.75" customHeight="1">
       <c r="B12" s="8" t="n"/>
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 30.07.2024</t>
+          <t>KONTOSTAND AM 22.12.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>160,45-</t>
+          <t>503,47-</t>
         </is>
       </c>
     </row>
@@ -874,7 +906,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 09.08.2024</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 01.01.2025</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
